--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T00:00:00+02:00</t>
+    <t>2025-07-10T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>20</t>
+    <t>23</t>
   </si>
   <si>
     <t>Level</t>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>Partial remission (PR)</t>
+  </si>
+  <si>
+    <t>metabolic_cr</t>
+  </si>
+  <si>
+    <t>CMR (metabolisk CR, deauville 1-3)</t>
+  </si>
+  <si>
+    <t>metabolic_pmr_4</t>
+  </si>
+  <si>
+    <t>PMR (metabolisk PR, deauville 4)</t>
+  </si>
+  <si>
+    <t>metabolic_pmr_5</t>
+  </si>
+  <si>
+    <t>PMR (metabolisk PR, deauville 5)</t>
   </si>
   <si>
     <t>complete_response</t>
@@ -572,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +682,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>53</v>
@@ -678,7 +696,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>55</v>
@@ -720,7 +738,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>61</v>
@@ -748,7 +766,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>65</v>
@@ -790,7 +808,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>71</v>
@@ -804,7 +822,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>73</v>
@@ -818,7 +836,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>75</v>
@@ -832,7 +850,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>77</v>
@@ -870,6 +888,48 @@
       </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
+++ b/fhir/CodeSystem-TreatmentResponseEvaluation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
